--- a/datas/Vadeler Arası Yayılma Pozisyonu Riski (Intra-Commodity Spread Charge).xlsx
+++ b/datas/Vadeler Arası Yayılma Pozisyonu Riski (Intra-Commodity Spread Charge).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,81 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
+      <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 1</t>
+          <t>Kontratlar 
+(Contracts)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 8</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 9</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 10</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 11</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 12</t>
-        </is>
-      </c>
+          <t>Vadeler Arası Yayılma Pozisyonu Riski (TL) (Intra-Commodity Spread Charge)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr"/>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr"/>
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr"/>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr"/>
+      <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr"/>
+      <c r="M1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4) Vadeler Arası Yayılma Pozisyonu Riski 
-(Intra-Commodity Spread Charge)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>AEFES</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3035</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -524,11 +482,12 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vadeli İşlem Sözleşmeleri ve Opsiyon Sözleşmeleri 
-(Futures and Options)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>AKBNK</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>735</v>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -544,14 +503,11 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kontratlar 
-(Contracts)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Vadeler Arası Yayılma Pozisyonu Riski (TL) (Intra-Commodity Spread Charge)</t>
-        </is>
+          <t>AKSEN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>510</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -568,11 +524,11 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AEFES</t>
+          <t>ALARK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3035</v>
+        <v>1160</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -589,11 +545,11 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AKBNK</t>
+          <t>ARCLK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>735</v>
+        <v>1885</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -610,11 +566,11 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AKSEN</t>
+          <t>ASELS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>510</v>
+        <v>715</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -631,11 +587,11 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ALARK</t>
+          <t>ASTOR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1160</v>
+        <v>1205</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -652,11 +608,11 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ARCLK</t>
+          <t>BIMAS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1885</v>
+        <v>6685</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -673,11 +629,11 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ASELS</t>
+          <t>BRSAN</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>715</v>
+        <v>5130</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -694,11 +650,11 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ASTOR</t>
+          <t>CIMSA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1205</v>
+        <v>375</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -715,11 +671,11 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMAS</t>
+          <t>CNHTRY</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6685</v>
+        <v>4365</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -736,11 +692,11 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRSAN</t>
+          <t>DOAS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5130</v>
+        <v>2855</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -757,11 +713,11 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CIMSA</t>
+          <t>DOHOL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>375</v>
+        <v>190</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -778,11 +734,11 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CNHTRY</t>
+          <t>EKGYO</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4365</v>
+        <v>120</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -799,11 +755,11 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DOAS</t>
+          <t>ELCBASM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2855</v>
+        <v>30960</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -820,11 +776,11 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DOHOL</t>
+          <t>ELCBASQ</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>190</v>
+        <v>50535</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -841,11 +797,11 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EKGYO</t>
+          <t>ELCBASY</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>120</v>
+        <v>109365</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -862,11 +818,11 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ELCBASM</t>
+          <t>ENJSA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30960</v>
+        <v>760</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -883,11 +839,11 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ELCBASQ</t>
+          <t>ENKAI</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>50535</v>
+        <v>425</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -904,11 +860,11 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ELCBASY</t>
+          <t>EREGL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>109365</v>
+        <v>575</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
@@ -925,11 +881,11 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENJSA</t>
+          <t>EURTRY</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>760</v>
+        <v>3310</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
@@ -946,11 +902,11 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ENKAI</t>
+          <t>FROTO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>425</v>
+        <v>11830</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
@@ -967,11 +923,11 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EREGL</t>
+          <t>GARAN</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>575</v>
+        <v>1450</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
@@ -988,11 +944,11 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EURTRY</t>
+          <t>GUBRF</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3310</v>
+        <v>1745</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
@@ -1009,11 +965,11 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FROTO</t>
+          <t>HALKB</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11830</v>
+        <v>220</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -1030,11 +986,11 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GARAN</t>
+          <t>HEKTS</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1450</v>
+        <v>140</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
@@ -1051,11 +1007,11 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GUBRF</t>
+          <t>ISCTR</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1745</v>
+        <v>190</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
@@ -1072,11 +1028,11 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HALKB</t>
+          <t>KCHOL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>220</v>
+        <v>2515</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
@@ -1093,11 +1049,11 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HEKTS</t>
+          <t>KONTR</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>140</v>
+        <v>2180</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
@@ -1114,11 +1070,11 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ISCTR</t>
+          <t>KOZAA</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>190</v>
+        <v>695</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
@@ -1135,11 +1091,11 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>KCHOL</t>
+          <t>KOZAL</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2515</v>
+        <v>280</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
@@ -1156,11 +1112,11 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>KONTR</t>
+          <t>KRDMD</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2180</v>
+        <v>360</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
@@ -1177,11 +1133,11 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>KOZAA</t>
+          <t>MGROS</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>695</v>
+        <v>6160</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
@@ -1198,11 +1154,11 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>KOZAL</t>
+          <t>ODAS</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
@@ -1219,11 +1175,11 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>KRDMD</t>
+          <t>OYAKC</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>360</v>
+        <v>915</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
@@ -1240,11 +1196,11 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MGROS</t>
+          <t>PETKM</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6160</v>
+        <v>255</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
@@ -1261,11 +1217,11 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ODAS</t>
+          <t>PGSUS</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>90</v>
+        <v>2830</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
@@ -1282,11 +1238,11 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>OYAKC</t>
+          <t>RUBTRY</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>915</v>
+        <v>5445</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
@@ -1303,11 +1259,11 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PETKM</t>
+          <t>SAHOL</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>255</v>
+        <v>1145</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
@@ -1324,11 +1280,11 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PGSUS</t>
+          <t>SASA</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2830</v>
+        <v>515</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
@@ -1345,11 +1301,11 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RUBTRY</t>
+          <t>SASX10</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5445</v>
+        <v>55</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
@@ -1366,11 +1322,11 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SAHOL</t>
+          <t>SISE</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1145</v>
+        <v>525</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
@@ -1387,11 +1343,11 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SASA</t>
+          <t>SOKM</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>515</v>
+        <v>685</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
@@ -1408,11 +1364,11 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SASX10</t>
+          <t>TAVHL</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>55</v>
+        <v>3045</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
@@ -1429,11 +1385,11 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SISE</t>
+          <t>TCELL</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>525</v>
+        <v>1155</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
@@ -1450,11 +1406,11 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SOKM</t>
+          <t>THYAO</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>685</v>
+        <v>3375</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
@@ -1471,11 +1427,11 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TAVHL</t>
+          <t>TKFEN</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3045</v>
+        <v>645</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
@@ -1492,11 +1448,11 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TCELL</t>
+          <t>TLREF</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1155</v>
+        <v>2450</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
@@ -1513,11 +1469,11 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>THYAO</t>
+          <t>TOASO</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3375</v>
+        <v>3590</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
@@ -1534,11 +1490,11 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TKFEN</t>
+          <t>TRT</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>645</v>
+        <v>3170</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
@@ -1555,11 +1511,11 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TLREF</t>
+          <t>TSKB</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2450</v>
+        <v>135</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
@@ -1576,11 +1532,11 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TOASO</t>
+          <t>TTKOM</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3590</v>
+        <v>570</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
@@ -1597,11 +1553,11 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>TUPRS</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3170</v>
+        <v>1845</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
@@ -1618,11 +1574,11 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TSKB</t>
+          <t>USDTRY</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>135</v>
+        <v>3080</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
@@ -1639,11 +1595,11 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TTKOM</t>
+          <t>VAKBN</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>570</v>
+        <v>260</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
@@ -1660,11 +1616,11 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TUPRS</t>
+          <t>VESTL</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1845</v>
+        <v>985</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
@@ -1681,11 +1637,11 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>USDTRY</t>
+          <t>X10XB</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3080</v>
+        <v>12495</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
@@ -1702,11 +1658,11 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>VAKBN</t>
+          <t>XAUTRY</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
@@ -1723,11 +1679,11 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VESTL</t>
+          <t>XLBNK</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>985</v>
+        <v>14465</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
@@ -1744,11 +1700,11 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>X10XB</t>
+          <t>XSD25</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>12495</v>
+        <v>13200</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
@@ -1765,11 +1721,11 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>XAUTRY</t>
+          <t>XU030</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>225</v>
+        <v>10570</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
@@ -1786,11 +1742,11 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>XLBNK</t>
+          <t>YKBNK</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14465</v>
+        <v>360</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
@@ -1807,11 +1763,13 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>XSD25</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>13200</v>
+          <t>Kontratlar</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Vadeler Arası Yayılma Pozisyonu Riski (USD)</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
@@ -1828,11 +1786,13 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>XU030</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>10570</v>
+          <t>(Contracts)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (Intra-Commodity Spread Charge)</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
@@ -1849,11 +1809,11 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>YKBNK</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>360</v>
+        <v>25</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
@@ -1870,13 +1830,11 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Kontratlar</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Vadeler Arası Yayılma Pozisyonu Riski (USD)</t>
-        </is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>35</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
@@ -1893,13 +1851,11 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>(Contracts)</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (Intra-Commodity Spread Charge)</t>
-        </is>
+          <t>XAGUSD</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>30</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
@@ -1916,11 +1872,11 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>XAUUSD</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
@@ -1937,11 +1893,11 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>XPDUSD</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
@@ -1958,11 +1914,11 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>XAGUSD</t>
+          <t>XPTUSD</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
@@ -1975,69 +1931,6 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>XAUUSD</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>110</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>XPDUSD</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>145</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>XPTUSD</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>75</v>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
